--- a/DataAnalysis/DriftLockingDataPID12021-07-13 Analysis.xlsx
+++ b/DataAnalysis/DriftLockingDataPID12021-07-13 Analysis.xlsx
@@ -8,15 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottezehnder/Documents/Academic/Summer 2021 Phys REU/laserStabilization/DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869FDF8B-A37B-144E-B6E2-444CDCE41A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E61B2DC8-B44B-9049-8660-2841870A7D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16740"/>
+    <workbookView xWindow="13000" yWindow="460" windowWidth="15420" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="DriftLockingDataPID12021-07-13 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,6 +580,7035 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8025371828521428E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.85219685039370074"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>286.642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>305.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>342.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>360.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>378.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>397.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>425.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>434.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>452.685</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>461.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>471.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>498.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>508.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>517.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>526.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>535.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>544.97400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>554.197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>563.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>572.64099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>581.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>600.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>609.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>618.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>627.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>637.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>655.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>664.904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>674.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>683.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>692.62300000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>701.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>711.178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>720.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>729.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>738.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>757.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>766.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>784.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>794.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>803.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>812.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>821.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>877.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>886.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>895.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>904.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>914.14700000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F284-3D49-BF90-FF9626BE1421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>286.642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>305.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>342.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>360.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>378.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>397.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>425.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>434.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>452.685</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>461.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>471.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>498.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>508.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>517.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>526.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>535.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>544.97400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>554.197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>563.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>572.64099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>581.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>600.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>609.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>618.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>627.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>637.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>655.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>664.904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>674.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>683.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>692.62300000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>701.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>711.178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>720.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>729.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>738.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>757.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>766.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>784.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>794.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>803.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>812.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>821.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>877.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>886.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>895.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>904.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>914.14700000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.99975586</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.999694819999899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.00012207</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.00021362</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.000183109999899</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.0003662099999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20.00024414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F284-3D49-BF90-FF9626BE1421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="337311711"/>
+        <c:axId val="337313359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="337311711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337313359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="337313359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337311711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9904458192284758E-2"/>
+          <c:y val="2.0447903959188198E-2"/>
+          <c:w val="0.92178975937554519"/>
+          <c:h val="0.89469595121961287"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>286.642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>305.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>342.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>360.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>378.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>397.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>425.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>434.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>452.685</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>461.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>471.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>498.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>508.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>517.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>526.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>535.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>544.97400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>554.197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>563.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>572.64099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>581.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>600.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>609.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>618.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>627.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>637.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>655.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>664.904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>674.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>683.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>692.62300000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>701.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>711.178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>720.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>729.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>738.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>757.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>766.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>784.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>794.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>803.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>812.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>821.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>877.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>886.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>895.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>904.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>914.14700000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.99975586</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.999694819999899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.00012207</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.00021362</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.000183109999899</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.0003662099999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20.00024414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623C-1A44-8B65-4DAB10F41862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392982575"/>
+        <c:axId val="392972255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392982575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392972255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392972255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392982575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1981142272738609E-2"/>
+          <c:y val="0.11045340362497608"/>
+          <c:w val="0.90107330190158086"/>
+          <c:h val="0.8528081666782803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>286.642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>305.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>342.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>360.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>378.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>397.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>425.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>434.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>452.685</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>461.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>471.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>498.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>508.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>517.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>526.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>535.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>544.97400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>554.197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>563.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>572.64099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>581.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>600.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>609.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>618.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>627.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>637.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>655.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>664.904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>674.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>683.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>692.62300000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>701.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>711.178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>720.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>729.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>738.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>757.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>766.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>784.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>794.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>803.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>812.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>821.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>877.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>886.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>895.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>904.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>914.14700000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC59-3C49-B0B3-D5915921B3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.897000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>231.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>286.642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>305.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>342.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>360.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>378.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>397.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>425.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>434.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>452.685</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>461.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>471.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>480.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>498.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>508.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>517.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>526.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>535.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>544.97400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>554.197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>563.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>572.64099999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>581.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>600.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>609.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>618.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>627.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>637.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>655.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>664.904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>674.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>683.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>692.62300000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>701.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>711.178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>720.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>729.61</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>738.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>757.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>766.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>775.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>784.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>794.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>803.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>812.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>821.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>877.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>886.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>895.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>904.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>914.14700000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.99975586</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.999694819999899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.00012207</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.00021362</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.000183109999899</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.0003662099999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20.00024414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC59-3C49-B0B3-D5915921B3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339136447"/>
+        <c:axId val="339138095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339136447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339138095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="339138095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339136447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4564396787085028E-2"/>
+          <c:y val="5.7250246062992123E-2"/>
+          <c:w val="0.89530124172079784"/>
+          <c:h val="0.87771142451007012"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.99978638</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.99975586</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.999847410000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.999816890000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.999694819999899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.999938960000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.00012207</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.00021362</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.000183109999899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.0003662099999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.000061039999899</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.0001525899999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.00009155</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.0000305199999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.99990845</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.99987793</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.999969480000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.00024414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DriftLockingDataPID12021-07-13 '!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E5C-124B-AE3B-D5D4D8AE14E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474128639"/>
+        <c:axId val="474306095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474128639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474306095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474306095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474128639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>641414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>192423</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F40329C-AE1E-8846-BE8B-BD272CD93451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>551017</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B62A963-DC8D-AA4C-8B66-891A24B27E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29368D25-7A7C-C54A-B8D3-477C0CE9D688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F83854-24EC-914D-B269-15C2BBAA5A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -855,271 +7906,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.44500000000000001</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1228</v>
-      </c>
-      <c r="C1">
-        <v>19.999816890000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>9.6750000000000007</v>
-      </c>
-      <c r="B2">
-        <v>1222</v>
       </c>
       <c r="C2">
         <v>19.999816890000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>($B$2-B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>9.6750000000000007</v>
+      </c>
+      <c r="B3">
+        <v>1222</v>
+      </c>
+      <c r="C3">
+        <v>19.999816890000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>18.898</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1234</v>
-      </c>
-      <c r="C3">
-        <v>19.99987793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>28.123000000000001</v>
-      </c>
-      <c r="B4">
-        <v>1219</v>
       </c>
       <c r="C4">
         <v>19.99987793</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>28.123000000000001</v>
+      </c>
+      <c r="B5">
+        <v>1219</v>
+      </c>
+      <c r="C5">
+        <v>19.99987793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>37.338999999999999</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1236</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>19.999938960000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>46.56</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1221</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>19.999969480000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>55.988</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1218</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>65.203000000000003</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1220</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>19.999969480000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>74.417000000000002</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1221</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>19.999847410000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>83.646000000000001</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1231</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>19.99990845</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>92.897000000000006</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1208</v>
-      </c>
-      <c r="C11">
-        <v>19.99978638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>102.111</v>
-      </c>
-      <c r="B12">
-        <v>1216</v>
       </c>
       <c r="C12">
         <v>19.99978638</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>111.33499999999999</v>
+        <v>102.111</v>
       </c>
       <c r="B13">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="C13">
         <v>19.99978638</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>111.33499999999999</v>
+      </c>
+      <c r="B14">
+        <v>1198</v>
+      </c>
+      <c r="C14">
+        <v>19.99978638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>120.584</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1213</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>19.99990845</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>129.815</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1219</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>19.99978638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>139.035</v>
-      </c>
-      <c r="B16">
-        <v>1201</v>
-      </c>
-      <c r="C16">
-        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>148.268</v>
+        <v>139.035</v>
       </c>
       <c r="B17">
-        <v>1223</v>
+        <v>1201</v>
       </c>
       <c r="C17">
-        <v>19.999816890000002</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>157.47999999999999</v>
+        <v>148.268</v>
       </c>
       <c r="B18">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="C18">
-        <v>19.999847410000001</v>
+        <v>19.999816890000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>166.697</v>
+        <v>157.47999999999999</v>
       </c>
       <c r="B19">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C19">
-        <v>19.99987793</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>175.91200000000001</v>
+        <v>166.697</v>
       </c>
       <c r="B20">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C20">
-        <v>19.99990845</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>185.12799999999999</v>
+        <v>175.91200000000001</v>
       </c>
       <c r="B21">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>194.352</v>
+        <v>185.12799999999999</v>
       </c>
       <c r="B22">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="C22">
-        <v>19.99987793</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>203.62799999999999</v>
+        <v>194.352</v>
       </c>
       <c r="B23">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="C23">
-        <v>20.0000305199999</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>212.86</v>
+        <v>203.62799999999999</v>
       </c>
       <c r="B24">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="C24">
         <v>20.0000305199999</v>
@@ -1127,76 +8181,76 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>222.09100000000001</v>
+        <v>212.86</v>
       </c>
       <c r="B25">
-        <v>1211</v>
+        <v>1226</v>
       </c>
       <c r="C25">
-        <v>19.99978638</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>231.31899999999999</v>
+        <v>222.09100000000001</v>
       </c>
       <c r="B26">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="C26">
-        <v>20.0000305199999</v>
+        <v>19.99978638</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>240.53700000000001</v>
+        <v>231.31899999999999</v>
       </c>
       <c r="B27">
         <v>1234</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>249.75899999999999</v>
+        <v>240.53700000000001</v>
       </c>
       <c r="B28">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="C28">
-        <v>19.99990845</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>258.98700000000002</v>
+        <v>249.75899999999999</v>
       </c>
       <c r="B29">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="C29">
-        <v>19.99978638</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>268.20699999999999</v>
+        <v>258.98700000000002</v>
       </c>
       <c r="B30">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C30">
-        <v>19.999847410000001</v>
+        <v>19.99978638</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>277.42599999999999</v>
+        <v>268.20699999999999</v>
       </c>
       <c r="B31">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C31">
         <v>19.999847410000001</v>
@@ -1204,230 +8258,230 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>286.642</v>
+        <v>277.42599999999999</v>
       </c>
       <c r="B32">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="C32">
-        <v>19.99990845</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>295.86</v>
+        <v>286.642</v>
       </c>
       <c r="B33">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C33">
-        <v>19.999847410000001</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>305.08999999999997</v>
+        <v>295.86</v>
       </c>
       <c r="B34">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="C34">
-        <v>19.99978638</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>314.346</v>
+        <v>305.08999999999997</v>
       </c>
       <c r="B35">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="C35">
-        <v>19.999816890000002</v>
+        <v>19.99978638</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>323.56599999999997</v>
+        <v>314.346</v>
       </c>
       <c r="B36">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C36">
-        <v>19.999938960000001</v>
+        <v>19.999816890000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>332.78899999999999</v>
+        <v>323.56599999999997</v>
       </c>
       <c r="B37">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C37">
-        <v>19.99975586</v>
+        <v>19.999938960000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>342.00799999999998</v>
+        <v>332.78899999999999</v>
       </c>
       <c r="B38">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="C38">
-        <v>19.999938960000001</v>
+        <v>19.99975586</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>351.23099999999999</v>
+        <v>342.00799999999998</v>
       </c>
       <c r="B39">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="C39">
-        <v>19.999969480000001</v>
+        <v>19.999938960000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>360.45600000000002</v>
+        <v>351.23099999999999</v>
       </c>
       <c r="B40">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="C40">
-        <v>20.00009155</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>369.71</v>
+        <v>360.45600000000002</v>
       </c>
       <c r="B41">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C41">
-        <v>19.99987793</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>378.93200000000002</v>
+        <v>369.71</v>
       </c>
       <c r="B42">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="C42">
-        <v>20.000061039999899</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>388.15499999999997</v>
+        <v>378.93200000000002</v>
       </c>
       <c r="B43">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C43">
-        <v>19.999847410000001</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>397.38</v>
+        <v>388.15499999999997</v>
       </c>
       <c r="B44">
-        <v>1255</v>
+        <v>1268</v>
       </c>
       <c r="C44">
-        <v>19.999969480000001</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>406.59500000000003</v>
+        <v>397.38</v>
       </c>
       <c r="B45">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="C45">
-        <v>19.99987793</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>415.81099999999998</v>
+        <v>406.59500000000003</v>
       </c>
       <c r="B46">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="C46">
-        <v>20.000061039999899</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>425.03199999999998</v>
+        <v>415.81099999999998</v>
       </c>
       <c r="B47">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="C47">
-        <v>19.999847410000001</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>434.24599999999998</v>
+        <v>425.03199999999998</v>
       </c>
       <c r="B48">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C48">
-        <v>20.0000305199999</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>443.46199999999999</v>
+        <v>434.24599999999998</v>
       </c>
       <c r="B49">
-        <v>1258</v>
+        <v>1268</v>
       </c>
       <c r="C49">
-        <v>19.999816890000002</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>452.685</v>
+        <v>443.46199999999999</v>
       </c>
       <c r="B50">
         <v>1258</v>
       </c>
       <c r="C50">
-        <v>20.0000305199999</v>
+        <v>19.999816890000002</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>461.91500000000002</v>
+        <v>452.685</v>
       </c>
       <c r="B51">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="C51">
-        <v>19.999847410000001</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>471.16800000000001</v>
+        <v>461.91500000000002</v>
       </c>
       <c r="B52">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="C52">
         <v>19.999847410000001</v>
@@ -1435,65 +8489,65 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>480.39400000000001</v>
+        <v>471.16800000000001</v>
       </c>
       <c r="B53">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>19.999847410000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>489.62299999999999</v>
+        <v>480.39400000000001</v>
       </c>
       <c r="B54">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="C54">
-        <v>19.999816890000002</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>498.87299999999999</v>
+        <v>489.62299999999999</v>
       </c>
       <c r="B55">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C55">
-        <v>19.99990845</v>
+        <v>19.999816890000002</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>508.09399999999999</v>
+        <v>498.87299999999999</v>
       </c>
       <c r="B56">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C56">
-        <v>20.0000305199999</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>517.31100000000004</v>
+        <v>508.09399999999999</v>
       </c>
       <c r="B57">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C57">
-        <v>19.999969480000001</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>526.53800000000001</v>
+        <v>517.31100000000004</v>
       </c>
       <c r="B58">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="C58">
         <v>19.999969480000001</v>
@@ -1501,252 +8555,252 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>535.75300000000004</v>
+        <v>526.53800000000001</v>
       </c>
       <c r="B59">
-        <v>1238</v>
+        <v>1266</v>
       </c>
       <c r="C59">
-        <v>19.999694819999899</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>544.97400000000005</v>
+        <v>535.75300000000004</v>
       </c>
       <c r="B60">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C60">
-        <v>20.00009155</v>
+        <v>19.999694819999899</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>554.197</v>
+        <v>544.97400000000005</v>
       </c>
       <c r="B61">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>563.40899999999999</v>
+        <v>554.197</v>
       </c>
       <c r="B62">
-        <v>1258</v>
+        <v>1229</v>
       </c>
       <c r="C62">
-        <v>20.0000305199999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>572.64099999999996</v>
+        <v>563.40899999999999</v>
       </c>
       <c r="B63">
-        <v>1238</v>
+        <v>1258</v>
       </c>
       <c r="C63">
-        <v>20.0001525899999</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>581.86099999999999</v>
+        <v>572.64099999999996</v>
       </c>
       <c r="B64">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C64">
-        <v>20.0000305199999</v>
+        <v>20.0001525899999</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>591.08600000000001</v>
+        <v>581.86099999999999</v>
       </c>
       <c r="B65">
-        <v>1258</v>
+        <v>1235</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>600.30499999999995</v>
+        <v>591.08600000000001</v>
       </c>
       <c r="B66">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="C66">
-        <v>19.999938960000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>609.51900000000001</v>
+        <v>600.30499999999995</v>
       </c>
       <c r="B67">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C67">
-        <v>19.999969480000001</v>
+        <v>19.999938960000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>618.74400000000003</v>
+        <v>609.51900000000001</v>
       </c>
       <c r="B68">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="C68">
-        <v>20.000061039999899</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>627.99099999999999</v>
+        <v>618.74400000000003</v>
       </c>
       <c r="B69">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="C69">
-        <v>19.999969480000001</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>637.24699999999996</v>
+        <v>627.99099999999999</v>
       </c>
       <c r="B70">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="C70">
-        <v>19.99990845</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>646.46799999999996</v>
+        <v>637.24699999999996</v>
       </c>
       <c r="B71">
-        <v>1226</v>
+        <v>1233</v>
       </c>
       <c r="C71">
-        <v>19.999969480000001</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>655.68399999999997</v>
+        <v>646.46799999999996</v>
       </c>
       <c r="B72">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="C72">
-        <v>19.999938960000001</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>664.904</v>
+        <v>655.68399999999997</v>
       </c>
       <c r="B73">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C73">
-        <v>19.99987793</v>
+        <v>19.999938960000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>674.11900000000003</v>
+        <v>664.904</v>
       </c>
       <c r="B74">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C74">
-        <v>20.00009155</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>683.36</v>
+        <v>674.11900000000003</v>
       </c>
       <c r="B75">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="C75">
-        <v>20.000061039999899</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>692.62300000000005</v>
+        <v>683.36</v>
       </c>
       <c r="B76">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="C76">
-        <v>20.0001525899999</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>701.90599999999995</v>
+        <v>692.62300000000005</v>
       </c>
       <c r="B77">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>20.0001525899999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>711.178</v>
+        <v>701.90599999999995</v>
       </c>
       <c r="B78">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="C78">
-        <v>20.00009155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>720.39300000000003</v>
+        <v>711.178</v>
       </c>
       <c r="B79">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C79">
-        <v>19.999969480000001</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>729.61</v>
+        <v>720.39300000000003</v>
       </c>
       <c r="B80">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C80">
-        <v>20.00009155</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>738.83100000000002</v>
+        <v>729.61</v>
       </c>
       <c r="B81">
-        <v>1221</v>
+        <v>1234</v>
       </c>
       <c r="C81">
         <v>20.00009155</v>
@@ -1754,214 +8808,226 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>748.05499999999995</v>
+        <v>738.83100000000002</v>
       </c>
       <c r="B82">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C82">
-        <v>20.000061039999899</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>757.27</v>
+        <v>748.05499999999995</v>
       </c>
       <c r="B83">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="C83">
-        <v>20.00012207</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>766.52499999999998</v>
+        <v>757.27</v>
       </c>
       <c r="B84">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C84">
-        <v>20.00021362</v>
+        <v>20.00012207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>775.75</v>
+        <v>766.52499999999998</v>
       </c>
       <c r="B85">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="C85">
-        <v>20.000183109999899</v>
+        <v>20.00021362</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>784.97299999999996</v>
+        <v>775.75</v>
       </c>
       <c r="B86">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="C86">
-        <v>20.0003662099999</v>
+        <v>20.000183109999899</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>794.19100000000003</v>
+        <v>784.97299999999996</v>
       </c>
       <c r="B87">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="C87">
-        <v>20.000061039999899</v>
+        <v>20.0003662099999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>803.41</v>
+        <v>794.19100000000003</v>
       </c>
       <c r="B88">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="C88">
-        <v>20.00009155</v>
+        <v>20.000061039999899</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>812.64599999999996</v>
+        <v>803.41</v>
       </c>
       <c r="B89">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C89">
-        <v>20.0001525899999</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>821.9</v>
+        <v>812.64599999999996</v>
       </c>
       <c r="B90">
-        <v>1225</v>
+        <v>1206</v>
       </c>
       <c r="C90">
-        <v>20.00009155</v>
+        <v>20.0001525899999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>831.12099999999998</v>
+        <v>821.9</v>
       </c>
       <c r="B91">
-        <v>1198</v>
+        <v>1225</v>
       </c>
       <c r="C91">
-        <v>20.0000305199999</v>
+        <v>20.00009155</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>840.33699999999999</v>
+        <v>831.12099999999998</v>
       </c>
       <c r="B92">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="C92">
-        <v>19.999969480000001</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>849.56299999999999</v>
+        <v>840.33699999999999</v>
       </c>
       <c r="B93">
-        <v>1200</v>
+        <v>1209</v>
       </c>
       <c r="C93">
-        <v>20.0000305199999</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>858.78099999999995</v>
+        <v>849.56299999999999</v>
       </c>
       <c r="B94">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>868</v>
+        <v>858.78099999999995</v>
       </c>
       <c r="B95">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="C95">
-        <v>20.0000305199999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>877.25</v>
+        <v>868</v>
       </c>
       <c r="B96">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C96">
-        <v>19.99990845</v>
+        <v>20.0000305199999</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>886.46299999999997</v>
+        <v>877.25</v>
       </c>
       <c r="B97">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="C97">
-        <v>19.99987793</v>
+        <v>19.99990845</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>895.68200000000002</v>
+        <v>886.46299999999997</v>
       </c>
       <c r="B98">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="C98">
-        <v>19.999969480000001</v>
+        <v>19.99987793</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>904.90899999999999</v>
+        <v>895.68200000000002</v>
       </c>
       <c r="B99">
-        <v>1177</v>
+        <v>1197</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>19.999969480000001</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>904.90899999999999</v>
+      </c>
+      <c r="B100">
+        <v>1177</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>914.14700000000005</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>1179</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>20.00024414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>